--- a/va_facility_data_2025-02-20/Spark M. Matsunaga Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Spark%20M.%20Matsunaga%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Spark M. Matsunaga Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Spark%20M.%20Matsunaga%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R534d1f68f3124e1399e21dc2c89fa403"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R4be7db142b5d409599bb39c8b75e7083"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R92bb89dece7f4bfda3b17ea001ace041"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="Ra1a4b98c947c4293b05a2e3338b1b803"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="Re56aa5b59aa04e679e04865d32a91090"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R15d0dfbd1f0b4f0b99fbc546d8394152"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R376745385d3e47d998ff39065f14a971"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R9cb59b48a1b64504a85d6652bc55e48c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R541b57b52486490d88d710acb2363572"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="Re7a92928e3b647fdb02b60547d5c20bd"/>
   </x:sheets>
 </x:workbook>
 </file>
